--- a/金币/2018年度.xlsx
+++ b/金币/2018年度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>表</t>
     </r>
     <r>
@@ -29,7 +35,6 @@
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>1-9</t>
@@ -37,6 +42,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>公司名称：</t>
     </r>
     <r>
@@ -173,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,15 +206,7 @@
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,7 +218,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -234,7 +235,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -302,6 +302,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,14 +400,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -333,14 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +422,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -362,74 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -438,17 +445,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -466,19 +465,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,19 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,139 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,8 +703,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,24 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -758,17 +774,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,168 +797,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,65 +957,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1379,25 +1368,25 @@
     <col min="2" max="2" width="12.2222222222222" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.7777777777778" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.8888888888889" style="3"/>
-    <col min="5" max="5" width="9" style="3"/>
+    <col min="5" max="5" width="9.66666666666667" style="3"/>
     <col min="6" max="6" width="14.1111111111111" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.8888888888889" style="3"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="2:13">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="16" customHeight="1"/>
     <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:6">
@@ -1424,320 +1413,332 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>20180921</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>3379.08</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>20180818</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3189.42</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>20180921</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>3918</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>20180918</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>2500</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>20180921</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>3032.21</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>20180918</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>859.28</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>20180927</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>2989.76</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>20180919</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="24">
         <v>707</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12">
         <v>20180919</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>2821.78</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12">
         <v>20180922</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="24">
         <v>930</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12">
         <v>20180926</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>739.4</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12">
         <v>20180926</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>768.4</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12">
         <v>20180926</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>768</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>20180926</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <v>2682.4</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
         <v>20180927</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="14">
         <v>2960</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
         <v>20180930</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="14">
         <v>6283</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>20180930</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="24">
         <v>683</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19">
         <f>SUM(C10+C11+C12+C13)</f>
         <v>13319.05</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23">
+      <c r="E23" s="18"/>
+      <c r="F23" s="20">
         <f>SUM(F10+F11+F12+F13+F14+F15+F16+F17+F18+F19+F20+F21)</f>
         <v>25208.68</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.6" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f>C23-F23</f>
         <v>-11889.63</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:2">
+    <row r="28" s="3" customFormat="1" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="D28" s="14">
+        <f>F10+F11+F12+F16+F17+F18+F19</f>
+        <v>11506.9</v>
+      </c>
+      <c r="E28" s="13">
+        <f>C10+C11+5000</f>
+        <v>12297.08</v>
+      </c>
+      <c r="F28" s="3">
+        <f>(E28-D28)/D28</f>
+        <v>0.0686701022864542</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:10">
@@ -1747,16 +1748,24 @@
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>707</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="D29" s="14">
+        <f>F14+F20+F21</f>
+        <v>12064.78</v>
+      </c>
+      <c r="E29" s="13">
+        <f>C12+C13+6300.16</f>
+        <v>12322.13</v>
+      </c>
+      <c r="F29" s="3">
+        <f>(E29-D29)/D29</f>
+        <v>0.0213306831952178</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:3">
       <c r="A30" s="3" t="s">
@@ -1765,137 +1774,123 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>930</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>683</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <f>SUM(C28+C29+C30+C31)</f>
         <v>2320</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:4">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:4">
-      <c r="A35" s="24"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:4">
-      <c r="A36" s="24"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:7">
-      <c r="A37" s="24"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="21"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:7">
-      <c r="A38" s="24"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="A38" s="21"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" s="3" customFormat="1" spans="1:1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" s="3" customFormat="1" spans="1:10">
-      <c r="A41" s="24"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" s="3" customFormat="1" spans="1:1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:7">
-      <c r="A43" s="15"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:1">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="48" s="3" customFormat="1" spans="3:6">
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" s="3" customFormat="1" spans="3:3">
-      <c r="C49" s="29"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="52" s="3" customFormat="1" spans="2:6">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" s="3" customFormat="1" spans="2:3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="56" s="3" customFormat="1" spans="2:2">
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="14"/>
+      <c r="B90" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1923,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1962,265 +1957,265 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
         <v>43374</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="15.6" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>20181007</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>5000</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>20181008</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>6300.16</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" ht="15.6" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" ht="15.6" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="15.6" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19">
         <f>SUM(C8+C9+C10+C11)</f>
         <v>11300.16</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23">
+      <c r="E21" s="18"/>
+      <c r="F21" s="20">
         <f>SUM(F8+F9+F10+F11+F12+F13+F14+F15+F16+F17+F18+F19)</f>
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f>C21-F21</f>
         <v>11300.16</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
@@ -2263,7 +2258,7 @@
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>707</v>
       </c>
       <c r="D27" s="3"/>
@@ -2278,7 +2273,7 @@
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>930</v>
       </c>
       <c r="D28" s="3"/>
@@ -2287,13 +2282,13 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>683</v>
       </c>
       <c r="D29" s="3"/>
@@ -2302,11 +2297,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <f>SUM(C26+C27+C28+C29)</f>
         <v>2320</v>
       </c>

--- a/金币/2018年度.xlsx
+++ b/金币/2018年度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -302,14 +302,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,18 +393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,29 +408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,30 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,29 +440,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,49 +465,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,133 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +704,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,18 +728,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,17 +763,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1358,7 +1358,7 @@
   <sheetPr/>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1918,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2031,11 +2031,15 @@
       <c r="C8" s="13">
         <v>5000</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>20181012</v>
+      </c>
       <c r="E8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="14">
+        <v>10800</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="15.6" spans="1:7">
@@ -2049,9 +2053,7 @@
         <v>6300.16</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
@@ -2060,9 +2062,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
@@ -2071,9 +2071,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
@@ -2082,9 +2080,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
     </row>
@@ -2093,9 +2089,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="14"/>
       <c r="G13" s="3"/>
     </row>
@@ -2104,9 +2098,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
     </row>
@@ -2115,9 +2107,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="14"/>
       <c r="G15" s="3"/>
     </row>
@@ -2126,9 +2116,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
     </row>
@@ -2137,9 +2125,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="3"/>
     </row>
@@ -2148,9 +2134,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
     </row>
@@ -2159,9 +2143,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="14"/>
       <c r="G19" s="3"/>
     </row>
@@ -2189,7 +2171,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="20">
         <f>SUM(F8+F9+F10+F11+F12+F13+F14+F15+F16+F17+F18+F19)</f>
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -2208,7 +2190,7 @@
       </c>
       <c r="B23" s="6">
         <f>C21-F21</f>
-        <v>11300.16</v>
+        <v>500.16</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
